--- a/Databricks_Notes.xlsx
+++ b/Databricks_Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45D46C-6987-4929-A9D3-2CAF01DE7F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3D00C-BC7C-41A4-B25E-06218ECAB371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{6D06DD71-AA96-4A60-BF7F-1C9189E66ACB}"/>
   </bookViews>
@@ -3060,215 +3060,214 @@
     </r>
   </si>
   <si>
+    <t>Enable AQE to dynamically coalesce partitions post-shuffle.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>spark.sql.adaptive.coalescePartitions.enabled = true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Use Delta Lake Cloning for Zero-Copy Copies</t>
+  </si>
+  <si>
+    <t>Create zero-copy clones for testing or development.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CREATE TABLE table_clone CLONE table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Define: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CREATE LIVE TABLE my_table AS SELECT ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>g4dn.xlarge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for ML training.</t>
+    </r>
+  </si>
+  <si>
+    <t>Leverage Unity Catalog for Metadata Optimization</t>
+  </si>
+  <si>
+    <t>Centralize metadata management to reduce overhead.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Migrate tables to Unity Catalog: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CREATE CATALOG my_catalog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Optimize Workflow Scheduling with Job Clusters</t>
+  </si>
+  <si>
+    <t>Use job-specific clusters for workflows to minimize waste.</t>
+  </si>
+  <si>
+    <t>Configure Workflow to use a new job cluster per run.</t>
+  </si>
+  <si>
+    <t>Use Databricks Advisor for Automated Recommendations</t>
+  </si>
+  <si>
+    <t>Get automated performance and cost optimization suggestions.</t>
+  </si>
+  <si>
+    <t>Review Advisor recommendations in Databricks SQL UI.</t>
+  </si>
+  <si>
+    <t>☁️Cluster Configuration &amp; Scaling</t>
+  </si>
+  <si>
+    <t>💾Data Storage &amp; Layout Optimization</t>
+  </si>
+  <si>
+    <t>⚡Query Execution &amp; Optimization</t>
+  </si>
+  <si>
+    <t>🔥Spark-Specific Tuning</t>
+  </si>
+  <si>
+    <t>🌊Delta Lake Features</t>
+  </si>
+  <si>
+    <t>🚀Advanced Optimization Techniques</t>
+  </si>
+  <si>
+    <t>💰Cost &amp; Resource Management</t>
+  </si>
+  <si>
+    <t>⏳Streaming &amp; Real-Time Workloads</t>
+  </si>
+  <si>
+    <t>🔗External Data &amp; Integrations</t>
+  </si>
+  <si>
+    <t>🐍Language &amp; Environment</t>
+  </si>
+  <si>
+    <t>🔒Security &amp; Governance</t>
+  </si>
+  <si>
+    <t>🔍Monitoring &amp; Debugging</t>
+  </si>
+  <si>
+    <t>🤖Machine Learning</t>
+  </si>
+  <si>
+    <t>🛠️Miscellaneous</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Tune </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
       <t>spark.sql.adaptive.coalescePartitions.enabled</t>
     </r>
-  </si>
-  <si>
-    <t>Enable AQE to dynamically coalesce partitions post-shuffle.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Set: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>spark.sql.adaptive.coalescePartitions.enabled = true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Use Delta Lake Cloning for Zero-Copy Copies</t>
-  </si>
-  <si>
-    <t>Create zero-copy clones for testing or development.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>CREATE TABLE table_clone CLONE table_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Define: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>CREATE LIVE TABLE my_table AS SELECT ...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>g4dn.xlarge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for ML training.</t>
-    </r>
-  </si>
-  <si>
-    <t>Leverage Unity Catalog for Metadata Optimization</t>
-  </si>
-  <si>
-    <t>Centralize metadata management to reduce overhead.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Migrate tables to Unity Catalog: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>CREATE CATALOG my_catalog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Optimize Workflow Scheduling with Job Clusters</t>
-  </si>
-  <si>
-    <t>Use job-specific clusters for workflows to minimize waste.</t>
-  </si>
-  <si>
-    <t>Configure Workflow to use a new job cluster per run.</t>
-  </si>
-  <si>
-    <t>Use Databricks Advisor for Automated Recommendations</t>
-  </si>
-  <si>
-    <t>Get automated performance and cost optimization suggestions.</t>
-  </si>
-  <si>
-    <t>Review Advisor recommendations in Databricks SQL UI.</t>
-  </si>
-  <si>
-    <t>☁️Cluster Configuration &amp; Scaling</t>
-  </si>
-  <si>
-    <t>💾Data Storage &amp; Layout Optimization</t>
-  </si>
-  <si>
-    <t>⚡Query Execution &amp; Optimization</t>
-  </si>
-  <si>
-    <t>🔥Spark-Specific Tuning</t>
-  </si>
-  <si>
-    <t>🌊Delta Lake Features</t>
-  </si>
-  <si>
-    <t>🚀Advanced Optimization Techniques</t>
-  </si>
-  <si>
-    <t>💰Cost &amp; Resource Management</t>
-  </si>
-  <si>
-    <t>⏳Streaming &amp; Real-Time Workloads</t>
-  </si>
-  <si>
-    <t>🔗External Data &amp; Integrations</t>
-  </si>
-  <si>
-    <t>🐍Language &amp; Environment</t>
-  </si>
-  <si>
-    <t>🔒Security &amp; Governance</t>
-  </si>
-  <si>
-    <t>🔍Monitoring &amp; Debugging</t>
-  </si>
-  <si>
-    <t>🤖Machine Learning</t>
-  </si>
-  <si>
-    <t>🛠️Miscellaneous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3296,12 +3295,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3471,23 +3464,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3495,14 +3478,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3525,8 +3502,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3845,1516 +3846,1516 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="13"/>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="13"/>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="13"/>
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="13"/>
+      <c r="B36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="13"/>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="13"/>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="13"/>
+      <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="13"/>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="13"/>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="13"/>
+      <c r="B42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="13"/>
+      <c r="B43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="13"/>
+      <c r="B44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="13"/>
+      <c r="B46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="13"/>
+      <c r="B47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="13"/>
+      <c r="B48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="13"/>
+      <c r="B49" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="13"/>
+      <c r="B51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="13"/>
+      <c r="B52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="13"/>
+      <c r="B53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="13"/>
+      <c r="B55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="13"/>
+      <c r="B56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="13"/>
+      <c r="B57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="13"/>
+      <c r="B58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="13"/>
+      <c r="B60" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="13"/>
+      <c r="B62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="13"/>
+      <c r="B63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="13"/>
+      <c r="B64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="13"/>
+      <c r="B65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="13"/>
+      <c r="B66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="13"/>
+      <c r="B67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="13"/>
+      <c r="B68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="13"/>
+      <c r="B69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="13"/>
+      <c r="B70" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="13"/>
+      <c r="B72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="13"/>
+      <c r="B73" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="13"/>
+      <c r="B75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="13"/>
+      <c r="B76" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="13"/>
+      <c r="B77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="9"/>
-      <c r="B46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="9"/>
-      <c r="B53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="10" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="13"/>
+      <c r="B78" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="13"/>
+      <c r="B80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="13"/>
+      <c r="B81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="13"/>
+      <c r="B82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="13"/>
+      <c r="B83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="13"/>
+      <c r="B84" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="13"/>
+      <c r="B85" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="13"/>
+      <c r="B87" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="13"/>
+      <c r="B88" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="13"/>
+      <c r="B89" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="13"/>
+      <c r="B90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="13"/>
+      <c r="B91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="13"/>
+      <c r="B93" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="13"/>
+      <c r="B94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="13"/>
+      <c r="B95" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="13"/>
+      <c r="B97" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="9"/>
-      <c r="B56" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="9"/>
-      <c r="B64" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="9"/>
-      <c r="B68" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="9"/>
-      <c r="B72" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="9"/>
-      <c r="B76" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="9"/>
-      <c r="B78" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="9" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="13"/>
+      <c r="B99" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="13"/>
+      <c r="B100" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="13"/>
+      <c r="B101" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="13"/>
+      <c r="B102" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="13"/>
+      <c r="B103" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="13"/>
+      <c r="B105" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="13"/>
+      <c r="B106" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="13"/>
+      <c r="B107" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="13"/>
+      <c r="B108" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="13"/>
+      <c r="B109" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="13"/>
+      <c r="B110" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="13"/>
+      <c r="B112" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14.65" thickBot="1">
+      <c r="A113" s="14"/>
+      <c r="B113" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="14.65" thickBot="1"/>
+    <row r="116" spans="1:4">
+      <c r="A116" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="9"/>
-      <c r="B85" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="B116" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C116" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D116" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="9"/>
-      <c r="B87" s="3" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="13"/>
+      <c r="B117" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D117" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="9"/>
-      <c r="B88" s="3" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" s="13"/>
+      <c r="B118" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D118" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="9"/>
-      <c r="B89" s="3" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="13"/>
+      <c r="B119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D119" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="9"/>
-      <c r="B90" s="3" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" s="13"/>
+      <c r="B120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D120" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="9"/>
-      <c r="B92" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="9"/>
-      <c r="B93" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="9"/>
-      <c r="B94" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="9"/>
-      <c r="B95" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="9"/>
-      <c r="B96" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="9"/>
-      <c r="B98" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="9"/>
-      <c r="B99" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="9"/>
-      <c r="B100" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="9"/>
-      <c r="B101" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="9"/>
-      <c r="B102" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="9"/>
-      <c r="B104" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="9"/>
-      <c r="B105" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="9"/>
-      <c r="B106" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="9"/>
-      <c r="B107" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="9"/>
-      <c r="B108" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="9" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="9"/>
-      <c r="B110" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="9"/>
-      <c r="B111" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="9"/>
-      <c r="B112" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="9"/>
-      <c r="B113" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="9"/>
-      <c r="B114" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="9"/>
-      <c r="B115" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B116" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D121" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="9"/>
-      <c r="B117" s="3" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" s="13"/>
+      <c r="B122" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D122" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="9"/>
-      <c r="B118" s="3" t="s">
+    <row r="123" spans="1:4" ht="14.65" thickBot="1">
+      <c r="A123" s="14"/>
+      <c r="B123" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C123" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D123" s="7" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="9"/>
-      <c r="B120" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="14.65" thickBot="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="A121:A123"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A32"/>
     <mergeCell ref="A33:A49"/>
     <mergeCell ref="A50:A60"/>
-    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Databricks_Notes.xlsx
+++ b/Databricks_Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3D00C-BC7C-41A4-B25E-06218ECAB371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD849BC-7ED0-4A76-A906-0FC57FF363D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{6D06DD71-AA96-4A60-BF7F-1C9189E66ACB}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="373">
-  <si>
-    <t>Databricks Performance Optimization Techniques</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="372">
   <si>
     <t>Category</t>
   </si>
@@ -3267,7 +3264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3288,16 +3285,8 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3307,12 +3296,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,7 +3447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3502,32 +3485,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3846,10 +3817,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3860,1502 +3832,1493 @@
     <col min="4" max="4" width="79.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="28.5">
+      <c r="A2" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="15"/>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="13" t="s">
+      <c r="C31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="13"/>
-      <c r="B32" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>336</v>
+        <v>88</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="15"/>
+      <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="15"/>
+      <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="15"/>
+      <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="15"/>
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="15"/>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="15"/>
+      <c r="B43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="15"/>
+      <c r="B45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="15"/>
+      <c r="B46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="15"/>
+      <c r="B48" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="13" t="s">
+      <c r="C48" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="13"/>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="15"/>
+      <c r="B50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="15"/>
+      <c r="B51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="15"/>
+      <c r="B52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="15"/>
+      <c r="B53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="15"/>
+      <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="15"/>
+      <c r="B55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="15"/>
+      <c r="B57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="15"/>
+      <c r="B58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="15"/>
+      <c r="B59" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="15"/>
+      <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="13"/>
-      <c r="B42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="13"/>
-      <c r="B43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="13"/>
-      <c r="B44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="13"/>
-      <c r="B46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="13"/>
-      <c r="B47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="13"/>
-      <c r="B48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="13"/>
-      <c r="B49" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="13"/>
-      <c r="B51" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="13"/>
-      <c r="B52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="13"/>
-      <c r="B53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="13"/>
-      <c r="B54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="13"/>
-      <c r="B55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="13"/>
-      <c r="B56" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="13"/>
-      <c r="B57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="13"/>
-      <c r="B58" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="13"/>
-      <c r="B59" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="13"/>
-      <c r="B60" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D60" s="5" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="15"/>
+      <c r="B62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="15"/>
+      <c r="B63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="15"/>
+      <c r="B64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="15"/>
+      <c r="B65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="15"/>
+      <c r="B66" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="15"/>
+      <c r="B68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="15"/>
+      <c r="B69" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="13" t="s">
+      <c r="C69" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="13"/>
-      <c r="B62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="13"/>
-      <c r="B63" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="13"/>
-      <c r="B64" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="13"/>
-      <c r="B65" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="13"/>
-      <c r="B66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="13"/>
-      <c r="B67" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="13"/>
-      <c r="B68" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="13"/>
-      <c r="B69" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="13"/>
-      <c r="B70" s="18" t="s">
-        <v>344</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="15"/>
+      <c r="B71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="15"/>
+      <c r="B72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="15"/>
+      <c r="B73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="15"/>
+      <c r="B74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="13"/>
-      <c r="B72" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="13"/>
-      <c r="B73" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="13"/>
-      <c r="B74" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="13"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D76" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="15"/>
+      <c r="B77" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="13"/>
-      <c r="B77" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C77" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="13"/>
-      <c r="B78" s="18" t="s">
-        <v>349</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="D78" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="15"/>
+      <c r="B79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="15"/>
+      <c r="B80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="15"/>
+      <c r="B81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="15"/>
+      <c r="B82" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="15"/>
+      <c r="B83" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="15"/>
+      <c r="B84" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="13" t="s">
+      <c r="C84" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="15"/>
+      <c r="B86" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="15"/>
+      <c r="B87" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="15"/>
+      <c r="B88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="15"/>
+      <c r="B89" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="15"/>
+      <c r="B90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="15"/>
+      <c r="B92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="15"/>
+      <c r="B93" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="15"/>
+      <c r="B94" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="15"/>
+      <c r="B95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="15"/>
+      <c r="B96" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="15"/>
+      <c r="B98" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="15"/>
+      <c r="B99" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="15"/>
+      <c r="B100" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="15"/>
+      <c r="B101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="15"/>
+      <c r="B102" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="15"/>
+      <c r="B104" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="15"/>
+      <c r="B105" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="15"/>
+      <c r="B106" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="15"/>
+      <c r="B107" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="15"/>
+      <c r="B108" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="15"/>
+      <c r="B109" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="15"/>
+      <c r="B111" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="14.65" thickBot="1">
+      <c r="A112" s="16"/>
+      <c r="B112" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="14.65" thickBot="1"/>
+    <row r="115" spans="1:4">
+      <c r="A115" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="13"/>
-      <c r="B80" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="13"/>
-      <c r="B81" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="13"/>
-      <c r="B82" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="13"/>
-      <c r="B83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="13"/>
-      <c r="B84" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="B115" s="13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="13"/>
-      <c r="B85" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="13"/>
-      <c r="B87" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="13"/>
-      <c r="B88" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="13"/>
-      <c r="B89" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="13"/>
-      <c r="B90" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="13"/>
-      <c r="B91" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="13"/>
-      <c r="B93" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="13"/>
-      <c r="B94" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="13"/>
-      <c r="B95" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="13"/>
-      <c r="B96" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="13"/>
-      <c r="B97" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="13"/>
-      <c r="B99" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="13"/>
-      <c r="B100" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="13"/>
-      <c r="B101" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="13"/>
-      <c r="B102" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="13"/>
-      <c r="B103" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="13" t="s">
+      <c r="C115" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="15"/>
+      <c r="B116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="15"/>
+      <c r="B117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="15"/>
+      <c r="B118" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="15"/>
+      <c r="B119" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="13"/>
-      <c r="B105" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="13"/>
-      <c r="B106" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="13"/>
-      <c r="B107" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="13"/>
-      <c r="B108" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="13"/>
-      <c r="B109" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="B120" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="13"/>
-      <c r="B110" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="13"/>
-      <c r="B112" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="14.65" thickBot="1">
-      <c r="A113" s="14"/>
-      <c r="B113" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="14.65" thickBot="1"/>
-    <row r="116" spans="1:4">
-      <c r="A116" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="13"/>
-      <c r="B117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="13"/>
-      <c r="B118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="13"/>
-      <c r="B119" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="13"/>
-      <c r="B120" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="13" t="s">
-        <v>370</v>
-      </c>
+      <c r="A121" s="15"/>
       <c r="B121" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="13"/>
-      <c r="B122" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C122" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D122" s="5" t="s">
+    </row>
+    <row r="122" spans="1:4" ht="14.65" thickBot="1">
+      <c r="A122" s="16"/>
+      <c r="B122" s="6" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="14.65" thickBot="1">
-      <c r="A123" s="14"/>
-      <c r="B123" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="D122" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>321</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A61:A70"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="A33:A49"/>
-    <mergeCell ref="A50:A60"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A103"/>
+  <mergeCells count="14">
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A31"/>
+    <mergeCell ref="A32:A48"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Databricks_Notes.xlsx
+++ b/Databricks_Notes.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD849BC-7ED0-4A76-A906-0FC57FF363D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A589AD-17EF-4B69-AF0F-8B38C36131F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{6D06DD71-AA96-4A60-BF7F-1C9189E66ACB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{6D06DD71-AA96-4A60-BF7F-1C9189E66ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="DBX Optimization Techniques-112" sheetId="2" r:id="rId1"/>
+    <sheet name="Parquet" sheetId="3" r:id="rId2"/>
+    <sheet name="Delta Lake" sheetId="4" r:id="rId3"/>
+    <sheet name="DeltaLake vs Hudi vs Iceberg" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="845">
   <si>
     <t>Category</t>
   </si>
@@ -3257,6 +3260,1634 @@
         <rFont val="Arial Unicode MS"/>
       </rPr>
       <t>spark.sql.adaptive.coalescePartitions.enabled</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Practical Use Case</t>
+  </si>
+  <si>
+    <t>Tools/Technologies</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Columnar Storage</t>
+  </si>
+  <si>
+    <t>Data is stored column-by-column, enabling efficient analytical queries.</t>
+  </si>
+  <si>
+    <t>Analytical queries where only specific columns are needed.</t>
+  </si>
+  <si>
+    <t>Apache Spark, Presto, Hive</t>
+  </si>
+  <si>
+    <t>Inefficient for row-based operations.</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Querying "Sales" and "Region" columns in a dataset of 1 billion rows.</t>
+  </si>
+  <si>
+    <t>Splittable Files</t>
+  </si>
+  <si>
+    <t>Files can be split into row groups, enabling parallel processing in distributed systems.</t>
+  </si>
+  <si>
+    <t>Processing large datasets in parallel.</t>
+  </si>
+  <si>
+    <t>Hadoop, Spark, Hive</t>
+  </si>
+  <si>
+    <t>Inefficient for very small datasets.</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Splitting a 1TB Parquet file into chunks for parallel processing in Spark.</t>
+  </si>
+  <si>
+    <t>Row Groups</t>
+  </si>
+  <si>
+    <t>Data is divided into row groups, which can be processed independently for scalability.</t>
+  </si>
+  <si>
+    <t>Parallel processing in distributed systems.</t>
+  </si>
+  <si>
+    <t>Apache Spark, Hive</t>
+  </si>
+  <si>
+    <t>Requires careful configuration of row group sizes.</t>
+  </si>
+  <si>
+    <t>Splitting a dataset into 128MB row groups for processing in Spark.</t>
+  </si>
+  <si>
+    <t>Handles Missing Data</t>
+  </si>
+  <si>
+    <t>Efficiently represents null values without wasting storage space.</t>
+  </si>
+  <si>
+    <t>Storing sparse datasets with missing values.</t>
+  </si>
+  <si>
+    <t>PyArrow, Pandas, Spark</t>
+  </si>
+  <si>
+    <t>May require additional handling during queries.</t>
+  </si>
+  <si>
+    <t>Representing null values in a "Phone Number" column efficiently.</t>
+  </si>
+  <si>
+    <t>File Size Optimization</t>
+  </si>
+  <si>
+    <t>Produces smaller files compared to row-based formats like CSV or JSON.</t>
+  </si>
+  <si>
+    <t>Reducing storage costs in data lakes.</t>
+  </si>
+  <si>
+    <t>AWS S3, Hadoop, Spark</t>
+  </si>
+  <si>
+    <t>Overhead for very small datasets.</t>
+  </si>
+  <si>
+    <t>Converting a 1GB CSV file into a 100MB Parquet file.</t>
+  </si>
+  <si>
+    <t>Support for Small Files via Consolidation</t>
+  </si>
+  <si>
+    <t>Small Parquet files can be consolidated into larger ones to avoid the "small files problem."</t>
+  </si>
+  <si>
+    <t>Managing small files in distributed systems.</t>
+  </si>
+  <si>
+    <t>Spark, Hadoop</t>
+  </si>
+  <si>
+    <t>Requires additional processing for consolidation.</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Consolidating 100 small Parquet files into a single large file.</t>
+  </si>
+  <si>
+    <t>Compression</t>
+  </si>
+  <si>
+    <t>Efficient Compression</t>
+  </si>
+  <si>
+    <t>Supports multiple codecs (e.g., Snappy, Gzip, Brotli, ZSTD) for high compression ratios.</t>
+  </si>
+  <si>
+    <t>Reducing storage costs for large datasets.</t>
+  </si>
+  <si>
+    <t>AWS S3, GCS, HDFS</t>
+  </si>
+  <si>
+    <t>Choosing the wrong codec can impact performance.</t>
+  </si>
+  <si>
+    <t>Compressing numeric data with Snappy for faster decompression.</t>
+  </si>
+  <si>
+    <t>Per-Column Compression</t>
+  </si>
+  <si>
+    <t>Allows different compression schemes for individual columns.</t>
+  </si>
+  <si>
+    <t>Optimizing compression for mixed datasets (e.g., text and numeric data).</t>
+  </si>
+  <si>
+    <t>PyArrow, Spark, Hive</t>
+  </si>
+  <si>
+    <t>Requires careful codec selection per column.</t>
+  </si>
+  <si>
+    <t>Using Snappy for numeric data and Gzip for text-heavy columns.</t>
+  </si>
+  <si>
+    <t>Efficient Encoding</t>
+  </si>
+  <si>
+    <t>Uses advanced techniques like dictionary encoding and run-length encoding for storage efficiency.</t>
+  </si>
+  <si>
+    <t>Reducing file size and improving read performance.</t>
+  </si>
+  <si>
+    <t>Spark, Hive, PyArrow</t>
+  </si>
+  <si>
+    <t>Ineffective for highly unique data.</t>
+  </si>
+  <si>
+    <t>Encoding repetitive values like "Male/Female" using dictionary encoding.</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Predicate Pushdown Optimization</t>
+  </si>
+  <si>
+    <t>Reads only relevant rows and columns, reducing I/O for faster queries.</t>
+  </si>
+  <si>
+    <t>Querying specific subsets of data.</t>
+  </si>
+  <si>
+    <t>Presto, Hive, Snowflake</t>
+  </si>
+  <si>
+    <t>Requires compatible query engines.</t>
+  </si>
+  <si>
+    <t>Filtering rows where "Region = Europe" before reading the dataset.</t>
+  </si>
+  <si>
+    <t>Parallel Processing</t>
+  </si>
+  <si>
+    <t>Enables parallel reads and writes, making it ideal for distributed systems.</t>
+  </si>
+  <si>
+    <t>Speeding up data processing in big data pipelines.</t>
+  </si>
+  <si>
+    <t>Spark, Presto, Hive</t>
+  </si>
+  <si>
+    <t>Requires proper cluster configuration.</t>
+  </si>
+  <si>
+    <t>Reading a Parquet file in parallel using Spark executors.</t>
+  </si>
+  <si>
+    <t>Columnar Projection</t>
+  </si>
+  <si>
+    <t>Reads only the required columns without loading the entire dataset into memory.</t>
+  </si>
+  <si>
+    <t>Querying specific columns in large datasets.</t>
+  </si>
+  <si>
+    <t>Not effective for row-based queries.</t>
+  </si>
+  <si>
+    <t>Reading only the "Salary" and "Age" columns from a dataset.</t>
+  </si>
+  <si>
+    <t>Data Skipping</t>
+  </si>
+  <si>
+    <t>Skips irrelevant row groups or pages based on metadata and statistics.</t>
+  </si>
+  <si>
+    <t>Query optimization and reduced I/O.</t>
+  </si>
+  <si>
+    <t>Apache Spark, Presto</t>
+  </si>
+  <si>
+    <t>Requires accurate column statistics.</t>
+  </si>
+  <si>
+    <t>Skipping row groups where "Sales &lt; 1000" based on column statistics.</t>
+  </si>
+  <si>
+    <t>Support for Partitioning</t>
+  </si>
+  <si>
+    <t>Integrates well with partitioned datasets for faster queries.</t>
+  </si>
+  <si>
+    <t>Querying partitioned datasets efficiently.</t>
+  </si>
+  <si>
+    <t>Hive, Spark, Presto</t>
+  </si>
+  <si>
+    <t>Can cause "small files problem" if not managed.</t>
+  </si>
+  <si>
+    <t>Partitioning a dataset by "Year" and "Region" for faster queries.</t>
+  </si>
+  <si>
+    <t>High Read Performance</t>
+  </si>
+  <si>
+    <t>Ideal for read-heavy analytical workloads, especially for columnar queries.</t>
+  </si>
+  <si>
+    <t>Running analytical queries on large datasets.</t>
+  </si>
+  <si>
+    <t>None.</t>
+  </si>
+  <si>
+    <t>Aggregating "Total Sales" for specific columns in a large dataset.</t>
+  </si>
+  <si>
+    <t>Predicate Filtering</t>
+  </si>
+  <si>
+    <t>Filters data at the storage level, reducing the amount of data read into memory.</t>
+  </si>
+  <si>
+    <t>Querying subsets of large datasets.</t>
+  </si>
+  <si>
+    <t>Presto, Hive, Spark</t>
+  </si>
+  <si>
+    <t>Speeds up query execution.</t>
+  </si>
+  <si>
+    <t>Filtering rows where "Sales &gt; 1000" without reading unrelated data.</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Schema Support</t>
+  </si>
+  <si>
+    <t>Self-describing format with embedded schema and metadata.</t>
+  </si>
+  <si>
+    <t>Enabling schema validation and evolution.</t>
+  </si>
+  <si>
+    <t>Hive, Presto, Spark</t>
+  </si>
+  <si>
+    <t>Schema evolution can cause compatibility issues.</t>
+  </si>
+  <si>
+    <t>Storing schema details for a dataset of customer transactions.</t>
+  </si>
+  <si>
+    <t>Rich Metadata</t>
+  </si>
+  <si>
+    <t>Stores column statistics, row groups, and schema evolution details.</t>
+  </si>
+  <si>
+    <t>Optimizing queries and enabling schema evolution.</t>
+  </si>
+  <si>
+    <t>Apache Hive, Presto</t>
+  </si>
+  <si>
+    <t>Metadata bloat for very small datasets.</t>
+  </si>
+  <si>
+    <t>Using metadata to skip row groups where "Age &gt; 60" is not satisfied.</t>
+  </si>
+  <si>
+    <t>Lightweight Metadata-Only Files</t>
+  </si>
+  <si>
+    <t>Parquet files can be as small as 8 KB if only metadata is stored.</t>
+  </si>
+  <si>
+    <t>Testing schema or storing metadata only.</t>
+  </si>
+  <si>
+    <t>PyArrow, Pandas</t>
+  </si>
+  <si>
+    <t>Not suitable for storing actual data.</t>
+  </si>
+  <si>
+    <t>Creating a metadata-only Parquet file for schema validation.</t>
+  </si>
+  <si>
+    <t>Statistics for Query Optimization</t>
+  </si>
+  <si>
+    <t>Stores min, max, and null counts for each column to optimize query execution plans.</t>
+  </si>
+  <si>
+    <t>Speeding up analytical queries.</t>
+  </si>
+  <si>
+    <t>Improves query planning and execution.</t>
+  </si>
+  <si>
+    <t>Using column statistics to filter rows where "Age &lt; 30".</t>
+  </si>
+  <si>
+    <t>Custom Metadata</t>
+  </si>
+  <si>
+    <t>Allows adding custom key-value metadata for tracking lineage or versioning.</t>
+  </si>
+  <si>
+    <t>Adding custom metadata for data tracking.</t>
+  </si>
+  <si>
+    <t>PyArrow, Hive</t>
+  </si>
+  <si>
+    <t>Requires manual metadata management.</t>
+  </si>
+  <si>
+    <t>Adding "Source System" as custom metadata for a dataset.</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Encryption Support</t>
+  </si>
+  <si>
+    <t>Supports column-level encryption for securing sensitive data.</t>
+  </si>
+  <si>
+    <t>Storing PII or financial data securely.</t>
+  </si>
+  <si>
+    <t>AWS S3, Azure Blob Storage</t>
+  </si>
+  <si>
+    <t>Encryption adds processing overhead.</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Encrypting the "Credit Card Number" column while leaving others unencrypted.</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>Integration with Data Warehouses</t>
+  </si>
+  <si>
+    <t>Works seamlessly with tools like Snowflake, Amazon Redshift, and Google BigQuery.</t>
+  </si>
+  <si>
+    <t>Querying Parquet files directly in data warehouses.</t>
+  </si>
+  <si>
+    <t>Snowflake, BigQuery, Redshift</t>
+  </si>
+  <si>
+    <t>Reduces data preparation time.</t>
+  </si>
+  <si>
+    <t>Querying Parquet files directly in BigQuery without transformation.</t>
+  </si>
+  <si>
+    <t>Open Source</t>
+  </si>
+  <si>
+    <t>Fully open-source under the Apache Software Foundation.</t>
+  </si>
+  <si>
+    <t>Free and accessible to everyone.</t>
+  </si>
+  <si>
+    <t>Encourages community-driven development.</t>
+  </si>
+  <si>
+    <t>Using Parquet as a default file format in open-source projects.</t>
+  </si>
+  <si>
+    <t>Backward and Forward Compatibility</t>
+  </si>
+  <si>
+    <t>Supports schema evolution and compatibility across versions.</t>
+  </si>
+  <si>
+    <t>Managing schema changes over time.</t>
+  </si>
+  <si>
+    <t>Hive, Spark</t>
+  </si>
+  <si>
+    <t>Adding a new "Country" column to an existing dataset without rewriting.</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Flexible Block Sizes</t>
+  </si>
+  <si>
+    <t>Configurable row group sizes for optimizing file size and query performance.</t>
+  </si>
+  <si>
+    <t>Adjusting block sizes for specific workloads.</t>
+  </si>
+  <si>
+    <t>Spark, Hive</t>
+  </si>
+  <si>
+    <t>Balances file size and performance.</t>
+  </si>
+  <si>
+    <t>Setting row group size to 128MB for optimal Spark processing.</t>
+  </si>
+  <si>
+    <t>Compatibility with Streaming Data</t>
+  </si>
+  <si>
+    <t>Can be integrated into streaming pipelines (e.g., Kafka, Spark Streaming).</t>
+  </si>
+  <si>
+    <t>Storing real-time data in Parquet format.</t>
+  </si>
+  <si>
+    <t>Kafka, Spark Streaming</t>
+  </si>
+  <si>
+    <t>Enables efficient storage for streaming data.</t>
+  </si>
+  <si>
+    <t>Writing Kafka stream data into Parquet files for analysis.</t>
+  </si>
+  <si>
+    <t>Versioning Support</t>
+  </si>
+  <si>
+    <t>Compatible with versioned data lakes (e.g., Apache Hudi, Delta Lake, Iceberg).</t>
+  </si>
+  <si>
+    <t>Managing historical and real-time data versions.</t>
+  </si>
+  <si>
+    <t>Delta Lake, Iceberg, Hudi</t>
+  </si>
+  <si>
+    <t>Simplifies data versioning.</t>
+  </si>
+  <si>
+    <t>Maintaining multiple versions of a dataset in Delta Lake.</t>
+  </si>
+  <si>
+    <t>Cloud-Native</t>
+  </si>
+  <si>
+    <t>Widely used with AWS S3, Google Cloud Storage, and Azure Blob Storage.</t>
+  </si>
+  <si>
+    <t>Storing and querying data in cloud environments.</t>
+  </si>
+  <si>
+    <t>AWS S3, Azure Blob, GCS</t>
+  </si>
+  <si>
+    <t>Reduces storage costs and improves accessibility.</t>
+  </si>
+  <si>
+    <t>Storing Parquet files in AWS S3 for a serverless analytics pipeline.</t>
+  </si>
+  <si>
+    <t>Optimized for Big Data</t>
+  </si>
+  <si>
+    <t>Designed for petabyte-scale datasets in distributed environments.</t>
+  </si>
+  <si>
+    <t>Storing and processing massive datasets.</t>
+  </si>
+  <si>
+    <t>Handles large-scale data efficiently.</t>
+  </si>
+  <si>
+    <t>Processing a petabyte-scale dataset in Spark.</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Logical Types</t>
+  </si>
+  <si>
+    <t>Supports logical types like DATE, TIMESTAMP, and DECIMAL for precision and compatibility.</t>
+  </si>
+  <si>
+    <t>Storing time-series or financial data.</t>
+  </si>
+  <si>
+    <t>PyArrow, Pandas, Hive</t>
+  </si>
+  <si>
+    <t>Ensures accurate representation of data.</t>
+  </si>
+  <si>
+    <t>Using the DECIMAL type for storing currency values like "12345.67".</t>
+  </si>
+  <si>
+    <t>Efficient Handling of Sparse Data</t>
+  </si>
+  <si>
+    <t>Optimized for datasets with many missing values.</t>
+  </si>
+  <si>
+    <t>Reducing storage for sparse datasets.</t>
+  </si>
+  <si>
+    <t>Saves storage space.</t>
+  </si>
+  <si>
+    <t>Storing a sparse matrix with null values efficiently.</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Integration with ML Pipelines</t>
+  </si>
+  <si>
+    <t>Widely used in machine learning workflows for storing preprocessed datasets.</t>
+  </si>
+  <si>
+    <t>Storing data for ML model training.</t>
+  </si>
+  <si>
+    <t>TensorFlow, PyTorch, MLflow</t>
+  </si>
+  <si>
+    <t>Requires additional metadata for feature tracking.</t>
+  </si>
+  <si>
+    <t>Saving preprocessed features for a recommendation system in Parquet.</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Challenges Addressed</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Data Reliability</t>
+  </si>
+  <si>
+    <t>ACID Transactions</t>
+  </si>
+  <si>
+    <t>Ensures data consistency and reliability even in distributed environments.</t>
+  </si>
+  <si>
+    <t>Multiple users writing to the same Delta Table will have consistent results without data corruption.</t>
+  </si>
+  <si>
+    <t>Ensuring reliable data pipelines for ETL (Extract, Transform, Load) workflows.</t>
+  </si>
+  <si>
+    <t>Prevents partial writes or data corruption.</t>
+  </si>
+  <si>
+    <t>Guarantees consistent and reliable data operations.</t>
+  </si>
+  <si>
+    <t>Data Quality</t>
+  </si>
+  <si>
+    <t>Prevents invalid data by enforcing a predefined schema during writes.</t>
+  </si>
+  <si>
+    <t>A table with a schema expecting an integer column will reject non-integer values.</t>
+  </si>
+  <si>
+    <t>Maintaining clean and consistent data for analytics and machine learning tasks.</t>
+  </si>
+  <si>
+    <t>Prevents inconsistent or invalid data.</t>
+  </si>
+  <si>
+    <t>Ensures data integrity and reliability.</t>
+  </si>
+  <si>
+    <t>Schema Evolution</t>
+  </si>
+  <si>
+    <t>Allows updates to the schema without breaking existing pipelines.</t>
+  </si>
+  <si>
+    <t>Adding a new column to a Delta Table without rewriting the entire dataset.</t>
+  </si>
+  <si>
+    <t>Adapting to changing business requirements or evolving datasets over time.</t>
+  </si>
+  <si>
+    <t>Avoids manual intervention for schema changes.</t>
+  </si>
+  <si>
+    <t>Simplifies handling of evolving data schemas.</t>
+  </si>
+  <si>
+    <t>Data Versioning</t>
+  </si>
+  <si>
+    <t>Time Travel</t>
+  </si>
+  <si>
+    <t>Enables querying historical versions of data using timestamps or version IDs.</t>
+  </si>
+  <si>
+    <t>Querying a Delta Table as it existed 7 days ago: df.option("timestampAsOf", "2023-10-01").load()</t>
+  </si>
+  <si>
+    <t>Debugging issues, auditing historical data, or reproducing machine learning experiments.</t>
+  </si>
+  <si>
+    <t>Lack of historical data tracking.</t>
+  </si>
+  <si>
+    <t>Provides full data traceability and reproducibility.</t>
+  </si>
+  <si>
+    <t>Performance Optimization</t>
+  </si>
+  <si>
+    <t>Data Compaction (bin-packing)</t>
+  </si>
+  <si>
+    <t>Combines small files into larger ones to improve query performance.</t>
+  </si>
+  <si>
+    <t>Merging 1,000 small Parquet files into 10 larger files for faster reads.</t>
+  </si>
+  <si>
+    <t>Optimizing storage and query performance in large-scale data lakes.</t>
+  </si>
+  <si>
+    <t>Inefficient storage and slow queries.</t>
+  </si>
+  <si>
+    <t>Improves query speed and reduces storage overhead.</t>
+  </si>
+  <si>
+    <t>Scalable Metadata Handling</t>
+  </si>
+  <si>
+    <t>Efficiently manages metadata for large datasets, ensuring faster queries.</t>
+  </si>
+  <si>
+    <t>Delta Lake can handle millions of partitions without performance degradation.</t>
+  </si>
+  <si>
+    <t>Querying petabyte-scale datasets without slowdowns.</t>
+  </si>
+  <si>
+    <t>Slow metadata operations in large datasets.</t>
+  </si>
+  <si>
+    <t>Enables fast queries on large-scale data lakes.</t>
+  </si>
+  <si>
+    <t>Z-Ordering</t>
+  </si>
+  <si>
+    <t>Optimizes data layout by co-locating related data for faster queries.</t>
+  </si>
+  <si>
+    <t>Sorting data by a frequently queried column (e.g., date) to speed up query performance.</t>
+  </si>
+  <si>
+    <t>Improving query performance for analytical workloads with large datasets.</t>
+  </si>
+  <si>
+    <t>Unoptimized data layout for queries.</t>
+  </si>
+  <si>
+    <t>Reduces query latency for frequently accessed data.</t>
+  </si>
+  <si>
+    <t>Automatically skips irrelevant data during queries for improved performance.</t>
+  </si>
+  <si>
+    <t>Querying a Delta Table with filters automatically excludes non-matching partitions.</t>
+  </si>
+  <si>
+    <t>Reducing query times for large datasets by avoiding unnecessary data scans.</t>
+  </si>
+  <si>
+    <t>Scanning irrelevant data during queries.</t>
+  </si>
+  <si>
+    <t>Accelerates query performance by skipping unnecessary data.</t>
+  </si>
+  <si>
+    <t>Unified Processing</t>
+  </si>
+  <si>
+    <t>Batch and Streaming</t>
+  </si>
+  <si>
+    <t>Supports both batch and streaming data processing in a single framework.</t>
+  </si>
+  <si>
+    <t>Ingesting real-time streaming data while running batch queries on the same Delta Table.</t>
+  </si>
+  <si>
+    <t>Building real-time dashboards and analytics pipelines.</t>
+  </si>
+  <si>
+    <t>Separate systems for batch and streaming.</t>
+  </si>
+  <si>
+    <t>Simplifies architecture with unified processing.</t>
+  </si>
+  <si>
+    <t>Change Data Capture (CDC)</t>
+  </si>
+  <si>
+    <t>Tracks and captures changes (inserts, updates, deletes) in Delta Tables.</t>
+  </si>
+  <si>
+    <t>Capturing only the updated rows from a Delta Table for downstream processing.</t>
+  </si>
+  <si>
+    <t>Propagating changes in real-time to downstream systems or applications.</t>
+  </si>
+  <si>
+    <t>Difficulty in tracking incremental changes.</t>
+  </si>
+  <si>
+    <t>Enables real-time updates for downstream systems.</t>
+  </si>
+  <si>
+    <t>Data Governance</t>
+  </si>
+  <si>
+    <t>Data Lineage</t>
+  </si>
+  <si>
+    <t>Tracks all changes made to the data for full auditability.</t>
+  </si>
+  <si>
+    <t>Viewing the history of a Delta Table using DESCRIBE HISTORY delta_table_path.</t>
+  </si>
+  <si>
+    <t>Meeting regulatory compliance and auditing requirements for sensitive datasets.</t>
+  </si>
+  <si>
+    <t>Lack of traceability in data changes.</t>
+  </si>
+  <si>
+    <t>Ensures accountability and compliance.</t>
+  </si>
+  <si>
+    <t>Retention Policies</t>
+  </si>
+  <si>
+    <t>Allows automatic cleanup of old data based on retention rules.</t>
+  </si>
+  <si>
+    <t>Configuring a table to retain only the last 30 days of data.</t>
+  </si>
+  <si>
+    <t>Managing storage costs and ensuring compliance with data retention policies.</t>
+  </si>
+  <si>
+    <t>Accumulation of outdated data.</t>
+  </si>
+  <si>
+    <t>Reduces storage costs and enforces data lifecycle policies.</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Delta Table</t>
+  </si>
+  <si>
+    <t>A dataset stored in Delta Lake format, queryable via Spark SQL.</t>
+  </si>
+  <si>
+    <t>Creating a Delta Table: df.write.format("delta").save("/path/to/delta-table")</t>
+  </si>
+  <si>
+    <t>Storing structured or semi-structured data for analysis and reporting.</t>
+  </si>
+  <si>
+    <t>Lack of format compatibility with analytics tools.</t>
+  </si>
+  <si>
+    <t>Provides a flexible and queryable data format.</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
+  </si>
+  <si>
+    <t>Supports dynamic changes to the table's schema without manual intervention.</t>
+  </si>
+  <si>
+    <t>Automatically adding a new column when new data includes it.</t>
+  </si>
+  <si>
+    <t>Adapting to unstructured or semi-structured data sources, such as JSON or IoT data streams.</t>
+  </si>
+  <si>
+    <t>Difficulty in handling evolving data formats.</t>
+  </si>
+  <si>
+    <t>Simplifies schema management for dynamic datasets.</t>
+  </si>
+  <si>
+    <t>Historical Insights</t>
+  </si>
+  <si>
+    <t>Audit Logs</t>
+  </si>
+  <si>
+    <t>Maintains a detailed log of all operations (e.g., inserts, updates, deletes).</t>
+  </si>
+  <si>
+    <t>Retrieving a log of all changes made to a table for auditing purposes.</t>
+  </si>
+  <si>
+    <t>Ensuring accountability and traceability for sensitive or regulated datasets.</t>
+  </si>
+  <si>
+    <t>Lack of visibility into data operations.</t>
+  </si>
+  <si>
+    <t>Provides full transparency for auditing purposes.</t>
+  </si>
+  <si>
+    <t>Data Sharing</t>
+  </si>
+  <si>
+    <t>Delta Sharing</t>
+  </si>
+  <si>
+    <t>Enables secure, real-time data sharing across organizations.</t>
+  </si>
+  <si>
+    <t>Sharing a Delta Table with a partner organization without duplicating the data.</t>
+  </si>
+  <si>
+    <t>Collaborating with external teams or partners on shared datasets securely and efficiently.</t>
+  </si>
+  <si>
+    <t>Difficulty in securely sharing large datasets.</t>
+  </si>
+  <si>
+    <t>Facilitates secure and efficient data collaboration.</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>Upserts and Deletes</t>
+  </si>
+  <si>
+    <t>Supports updates and deletes directly on Delta Tables.</t>
+  </si>
+  <si>
+    <t>Updating specific rows in a Delta Table using SQL: MERGE INTO delta_table USING updates ...</t>
+  </si>
+  <si>
+    <t>Handling late-arriving data or correcting errors in already-ingested data.</t>
+  </si>
+  <si>
+    <t>Difficulty in modifying existing data.</t>
+  </si>
+  <si>
+    <t>Simplifies handling of late-arriving or incorrect data.</t>
+  </si>
+  <si>
+    <t>Concurrency Handling</t>
+  </si>
+  <si>
+    <t>Optimistic Concurrency Control</t>
+  </si>
+  <si>
+    <t>Ensures multiple users can write to the same table without conflicts.</t>
+  </si>
+  <si>
+    <t>Two users updating different parts of the table will not interfere with each other.</t>
+  </si>
+  <si>
+    <t>Supporting collaborative data pipelines with multiple contributors.</t>
+  </si>
+  <si>
+    <t>Conflicts during concurrent data writes.</t>
+  </si>
+  <si>
+    <t>Enables safe and conflict-free concurrent operations.</t>
+  </si>
+  <si>
+    <t>Advanced Features</t>
+  </si>
+  <si>
+    <t>Incremental Data Loading</t>
+  </si>
+  <si>
+    <t>Supports loading only new or changed data into Delta Tables.</t>
+  </si>
+  <si>
+    <t>Using MERGE to load only the latest changes into a Delta Table.</t>
+  </si>
+  <si>
+    <t>Building efficient data pipelines for real-time or near-real-time processing.</t>
+  </si>
+  <si>
+    <t>Reprocessing entire datasets for small updates.</t>
+  </si>
+  <si>
+    <t>Saves time and resources by processing only new data.</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Speeds up queries by caching frequently accessed data in memory.</t>
+  </si>
+  <si>
+    <t>Using Spark's cache() API to store Delta Table data in memory for faster reads.</t>
+  </si>
+  <si>
+    <t>Improving performance for frequently queried datasets in analytics workflows.</t>
+  </si>
+  <si>
+    <t>Slow queries on frequently accessed data.</t>
+  </si>
+  <si>
+    <t>Improves query speed for repeated access patterns.</t>
+  </si>
+  <si>
+    <t>Partitioning</t>
+  </si>
+  <si>
+    <t>Allows splitting data into partitions for efficient storage and querying.</t>
+  </si>
+  <si>
+    <t>Partitioning a table by year or region for faster queries on those dimensions.</t>
+  </si>
+  <si>
+    <t>Optimizing storage and query performance for large-scale datasets.</t>
+  </si>
+  <si>
+    <t>Enables faster queries and better storage management.</t>
+  </si>
+  <si>
+    <t>from pyspark.sql import SparkSession
+from delta.tables import DeltaTable
+import time
+# Initialize SparkSession with Delta Lake support
+# spark = SparkSession.builder \
+#     .appName("Delta Lake Features Demo") \
+#     .config("spark.sql.extensions", "io.delta.sql.DeltaSparkSessionExtension") \
+#     .config("spark.sql.catalog.spark_catalog", "org.apache.spark.sql.delta.catalog.DeltaCatalog") \
+#     .getOrCreate()
+# Set up paths for Delta Tables
+delta_path = "s3://cfy-hml-s3-dlk-databricks-data/users/X215288/tgt_folder/delta_f_demo"
+partitioned_delta_path = "s3://cfy-hml-s3-dlk-databricks-data/users/X215288/tgt_folder/delta_p_f_demo"
+# Clean up any existing data for demonstration purposes
+import shutil
+shutil.rmtree(delta_path, ignore_errors=True)
+shutil.rmtree(partitioned_delta_path, ignore_errors=True)
+# Create Initial Delta Table (ACID Transactions, Schema Enforcement)
+print("\n===== ACID Transactions and Schema Enforcement =====")
+data = [(1, "Alice", 29), (2, "Bob", 31), (3, "Cathy", 25)]
+columns = ["id", "name", "age"]
+df = spark.createDataFrame(data, columns)
+# Write DataFrame to Delta Table
+df.write.format("delta").mode("overwrite").save(delta_path)
+# Read and display the Delta Table
+delta_table = spark.read.format("delta").load(delta_path)
+delta_table.show()
+# Schema Evolution
+print("\n===== Schema Evolution =====")
+new_data = [(4, "David", 40, "Engineer")]
+new_columns = ["id", "name", "age", "profession"]
+new_df = spark.createDataFrame(new_data, new_columns)
+# Enable schema evolution and append new data
+new_df.write.format("delta").mode("append").option("mergeSchema", "true").save(delta_path)
+# Read and display the updated Delta Table
+delta_table = spark.read.format("delta").load(delta_path)
+delta_table.show()
+# Time Travel
+print("\n===== Time Travel =====")
+# Query the first version of the Delta Table
+historical_df = spark.read.format("delta").option("versionAsOf", 0).load(delta_path)
+historical_df.show()
+# Data Compaction
+print("\n===== Data Compaction =====")
+# Simulate small files by writing data in small batches
+for i in range(5, 10):
+    small_data = [(i, f"User_{i}", i * 5)]
+    small_df = spark.createDataFrame(small_data, ["id", "name", "age"])
+    small_df.write.format("delta").mode("append").save(delta_path)
+# Compact small files into larger ones
+delta_table = DeltaTable.forPath(spark, delta_path)
+delta_table.optimize().executeCompaction()
+# Scalable Metadata Handling
+print("\n===== Scalable Metadata Handling =====")
+# Demonstrating metadata handling by querying the table
+delta_table.toDF().count()
+# Z-Ordering
+print("\n===== Z-Ordering =====")
+# Optimize data layout for faster queries
+delta_table.optimize().executeZOrderBy("age")
+# Data Skipping
+print("\n===== Data Skipping =====")
+# Query data with filters (skips irrelevant data)
+filtered_df = spark.read.format("delta").load(delta_path).filter("age &gt; 30")
+filtered_df.show()
+# Batch and Streaming
+print("\n===== Batch and Streaming =====")
+# Append streaming data to the Delta Table
+streaming_data = [(10, "Stream_User", 45)]
+streaming_df = spark.createDataFrame(streaming_data, ["id", "name", "age"])
+streaming_df.write.format("delta").mode("append").save(delta_path)
+# Read the Delta Table as a streaming source
+streaming_query = spark.readStream.format("delta").load(delta_path)
+streaming_query.writeStream.format("console").start().awaitTermination(5)
+# Change Data Capture (CDC)
+print("\n===== Change Data Capture (CDC) =====")
+# Update rows in the Delta Table
+delta_table.update(condition="id = 2", set={"name": "'Updated_Bob'"})
+# Data Lineage
+print("\n===== Data Lineage =====")
+# View the history of the Delta Table
+history = delta_table.history()
+history.show()
+# Retention Policies
+print("\n===== Retention Policies =====")
+# Set retention policy to remove older versions
+spark.sql(f"VACUUM '{delta_path}' RETAIN 168 HOURS")
+# Delta Sharing (Example only; requires external setup)
+print("\n===== Delta Sharing =====")
+# Sharing a Delta Table securely would require setting up Delta Sharing APIs.
+# Upserts and Deletes
+print("\n===== Upserts and Deletes =====")
+# Perform an upsert operation
+upsert_data = [(3, "Cathy_Updated", 26)]
+upsert_df = spark.createDataFrame(upsert_data, ["id", "name", "age"])
+delta_table.alias("target").merge(
+    upsert_df.alias("source"),
+    "target.id = source.id"
+).whenMatchedUpdate(set={"name": "source.name", "age": "source.age"}) \
+ .whenNotMatchedInsert(values={"id": "source.id", "name": "source.name", "age": "source.age"}) \
+ .execute()
+# Delete rows
+delta_table.delete(condition="id = 10")
+# Optimistic Concurrency Control
+print("\n===== Optimistic Concurrency Control =====")
+# Simulate concurrent writes (handled automatically by Delta Lake)
+# Incremental Data Loading
+print("\n===== Incremental Data Loading =====")
+# Load only new or changed data
+incremental_df = spark.read.format("delta").option("startingVersion", 1).load(delta_path)
+incremental_df.show()
+# Caching
+print("\n===== Caching =====")
+# Cache the Delta Table for faster queries
+cached_df = spark.read.format("delta").load(delta_path).cache()
+cached_df.count()
+# Partitioning
+print("\n===== Partitioning =====")
+# Write data with partitioning
+df.write.format("delta").partitionBy("age").save(partitioned_delta_path)
+# Read and display partitioned data
+partitioned_df = spark.read.format("delta").load(partitioned_delta_path)
+partitioned_df.show()
+# Stop SparkSession
+# spark.stop()</t>
+  </si>
+  <si>
+    <t>Feature/Aspect</t>
+  </si>
+  <si>
+    <t>Delta Lake</t>
+  </si>
+  <si>
+    <t>Apache Hudi</t>
+  </si>
+  <si>
+    <t>Apache Iceberg</t>
+  </si>
+  <si>
+    <t>Primary Use Case</t>
+  </si>
+  <si>
+    <t>Batch and streaming data processing</t>
+  </si>
+  <si>
+    <t>Real-time data ingestion and upserts</t>
+  </si>
+  <si>
+    <t>Large-scale, immutable analytical datasets</t>
+  </si>
+  <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Parquet</t>
+  </si>
+  <si>
+    <t>Parquet, ORC, Avro</t>
+  </si>
+  <si>
+    <t>Versioning</t>
+  </si>
+  <si>
+    <t>Supports versioned tables</t>
+  </si>
+  <si>
+    <t>Yes (via transaction logs)</t>
+  </si>
+  <si>
+    <t>Yes (via timeline and commit protocols)</t>
+  </si>
+  <si>
+    <t>Yes (via snapshot isolation)</t>
+  </si>
+  <si>
+    <t>Supported (with schema validation)</t>
+  </si>
+  <si>
+    <t>Partition pruning</t>
+  </si>
+  <si>
+    <t>Supports primary key-based updates and deletes</t>
+  </si>
+  <si>
+    <t>Automatic partitioning (no manual management)</t>
+  </si>
+  <si>
+    <t>Indexing</t>
+  </si>
+  <si>
+    <t>No native indexing</t>
+  </si>
+  <si>
+    <t>Built-in indexing for faster queries</t>
+  </si>
+  <si>
+    <t>Compaction</t>
+  </si>
+  <si>
+    <t>Not a primary feature</t>
+  </si>
+  <si>
+    <t>Supports asynchronous and inline compaction</t>
+  </si>
+  <si>
+    <t>Streaming Support</t>
+  </si>
+  <si>
+    <t>Supports streaming writes and reads</t>
+  </si>
+  <si>
+    <t>Designed for streaming ingestion and upserts</t>
+  </si>
+  <si>
+    <t>Primarily batch-oriented</t>
+  </si>
+  <si>
+    <t>Concurrency Control</t>
+  </si>
+  <si>
+    <t>Optimistic concurrency control</t>
+  </si>
+  <si>
+    <t>Snapshot-based isolation</t>
+  </si>
+  <si>
+    <t>Merge-on-Read vs Copy-on-Write</t>
+  </si>
+  <si>
+    <t>Primarily Copy-on-Write</t>
+  </si>
+  <si>
+    <t>Supports both (configurable per table)</t>
+  </si>
+  <si>
+    <t>Checkpointing</t>
+  </si>
+  <si>
+    <t>Built-in via transaction log</t>
+  </si>
+  <si>
+    <t>Built-in for incremental processing</t>
+  </si>
+  <si>
+    <t>Managed via snapshots</t>
+  </si>
+  <si>
+    <t>Data Layout Optimization</t>
+  </si>
+  <si>
+    <t>Z-order clustering</t>
+  </si>
+  <si>
+    <t>Clustering and file compaction</t>
+  </si>
+  <si>
+    <t>Automatic partition evolution</t>
+  </si>
+  <si>
+    <t>Query Performance Enhancements</t>
+  </si>
+  <si>
+    <t>Bloom filters, column pruning, and indexing</t>
+  </si>
+  <si>
+    <t>Hidden partitioning, metadata pruning</t>
+  </si>
+  <si>
+    <t>Integration with Query Engines</t>
+  </si>
+  <si>
+    <t>Presto, Hive, Spark, Flink, Trino</t>
+  </si>
+  <si>
+    <t>Metadata Management</t>
+  </si>
+  <si>
+    <t>Transaction log</t>
+  </si>
+  <si>
+    <t>Timeline server</t>
+  </si>
+  <si>
+    <t>Metadata tree with snapshots</t>
+  </si>
+  <si>
+    <t>Supported</t>
+  </si>
+  <si>
+    <t>Support for Object Stores</t>
+  </si>
+  <si>
+    <t>S3, GCS, Azure, HDFS</t>
+  </si>
+  <si>
+    <t>Data Deletion/Retention</t>
+  </si>
+  <si>
+    <t>Supports deletes but less optimized</t>
+  </si>
+  <si>
+    <t>Optimized for GDPR compliance (deletes)</t>
+  </si>
+  <si>
+    <t>Supports deletes with snapshot expiration</t>
+  </si>
+  <si>
+    <t>Data Governance Features</t>
+  </si>
+  <si>
+    <t>Limited native support</t>
+  </si>
+  <si>
+    <t>Built-in metadata tracking and auditing</t>
+  </si>
+  <si>
+    <t>Cost Optimization</t>
+  </si>
+  <si>
+    <t>Focused on reducing I/O costs</t>
+  </si>
+  <si>
+    <t>Incremental processing reduces storage costs</t>
+  </si>
+  <si>
+    <t>Optimized for query performance and cost</t>
+  </si>
+  <si>
+    <t>Catalog Integration</t>
+  </si>
+  <si>
+    <t>Hive Metastore, Glue Catalog</t>
+  </si>
+  <si>
+    <t>Hive Metastore, Glue Catalog, etc.</t>
+  </si>
+  <si>
+    <t>Hive Metastore, Glue Catalog, Nessie</t>
+  </si>
+  <si>
+    <t>Compaction Granularity</t>
+  </si>
+  <si>
+    <t>Configurable (file-level or partition-level)</t>
+  </si>
+  <si>
+    <t>Managed at the snapshot level</t>
+  </si>
+  <si>
+    <t>Support for CDC (Change Data Capture)</t>
+  </si>
+  <si>
+    <t>Limited support</t>
+  </si>
+  <si>
+    <t>Native support</t>
+  </si>
+  <si>
+    <t>Write Amplification</t>
+  </si>
+  <si>
+    <t>Higher due to Copy-on-Write</t>
+  </si>
+  <si>
+    <t>Reduced via incremental updates</t>
+  </si>
+  <si>
+    <t>Moderate due to snapshot isolation</t>
+  </si>
+  <si>
+    <t>Read Amplification</t>
+  </si>
+  <si>
+    <t>Reduced via indexing and pruning</t>
+  </si>
+  <si>
+    <t>Reduced via hidden partitioning</t>
+  </si>
+  <si>
+    <t>Ecosystem Maturity</t>
+  </si>
+  <si>
+    <t>Strong in Spark-based workflows</t>
+  </si>
+  <si>
+    <t>Strong in real-time and streaming use cases</t>
+  </si>
+  <si>
+    <t>Growing with analytical use cases</t>
+  </si>
+  <si>
+    <t>File Format Evolution</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Supports evolving file formats</t>
+  </si>
+  <si>
+    <t>Governance and Lineage</t>
+  </si>
+  <si>
+    <t>Stronger focus on governance and lineage</t>
+  </si>
+  <si>
+    <t>Community Governance</t>
+  </si>
+  <si>
+    <t>Databricks-led</t>
+  </si>
+  <si>
+    <t>Apache Software Foundation</t>
+  </si>
+  <si>
+    <t>Optimized for batch and streaming</t>
+  </si>
+  <si>
+    <t>Optimized for incremental processing</t>
+  </si>
+  <si>
+    <t>Optimized for large-scale analytical queries</t>
+  </si>
+  <si>
+    <t>Practical Use Cases</t>
+  </si>
+  <si>
+    <t>ETL pipelines, machine learning workflows, and batch processing</t>
+  </si>
+  <si>
+    <t>Real-time fraud detection, IoT data ingestion, and GDPR compliance</t>
+  </si>
+  <si>
+    <t>Data warehousing, large-scale analytics, and immutable data lakes</t>
+  </si>
+  <si>
+    <t>Ecosystem Integration</t>
+  </si>
+  <si>
+    <t>Tight integration with Spark and Databricks</t>
+  </si>
+  <si>
+    <t>Works with Spark, Flink, Hive, Presto, Trino</t>
+  </si>
+  <si>
+    <t>Works with Spark, Flink, Hive, Presto, Trino, and Nessie</t>
+  </si>
+  <si>
+    <t>Quantitative Metrics</t>
+  </si>
+  <si>
+    <t>Latency: Low for batch; moderate for streaming. _x000D_
+Throughput: High batch throughput. _x000D_
+Storage Efficiency: Moderate due to Copy-on-Write</t>
+  </si>
+  <si>
+    <t>Latency: Low for real-time ingestion. _x000D_
+Throughput: High for incremental updates. _x000D_
+Storage Efficiency: High due to Merge-on-Read</t>
+  </si>
+  <si>
+    <t>Latency: Low for analytical queries. _x000D_
+Throughput: High for large-scale queries. _x000D_
+Storage Efficiency: High due to snapshot isolation</t>
+  </si>
+  <si>
+    <t>Real-World Examples</t>
+  </si>
+  <si>
+    <t>Used by Databricks customers for ETL and ML workflows. _x000D_
+Widely adopted in financial services and retail</t>
+  </si>
+  <si>
+    <t>Uber uses Hudi for real-time trip data processing. _x000D_
+Used in IoT platforms for incremental updates</t>
+  </si>
+  <si>
+    <t>Netflix uses Iceberg for analytical workloads. _x000D_
+AWS and Snowflake support Iceberg for data warehousing</t>
+  </si>
+  <si>
+    <t>Future Roadmap or Feature Gaps</t>
+  </si>
+  <si>
+    <t>Focus on improving governance and indexing. _x000D_
+Limited support for non-Spark environments</t>
+  </si>
+  <si>
+    <t>Expanding Flink integration and scaling capabilities. _x000D_
+Limited governance features compared to Iceberg</t>
+  </si>
+  <si>
+    <t>Improving CDC support and streaming capabilities. _x000D_
+Limited real-time ingestion support</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delta Lake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+  - Offers strong support for both batch and streaming use cases.
+  - Backed by Databricks, with tight integration with Spark.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache Hudi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+  - Best for real-time use cases with frequent updates and upserts.
+  - Includes built-in indexing and compaction mechanisms for efficient storage and query performance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache Iceberg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+  - Designed for large-scale analytical workloads with a focus on immutability and governance.
+  - Hidden partitioning simplifies user experience.
+How to Choose:
+  - Choose Apache Hudi if you need real-time ingestion, upserts, and streaming capabilities.
+  - Choose Delta Lake if you are heavily reliant on Spark and need robust support for both batch and streaming pipelines.
+  - Choose Apache Iceberg if you prioritize query performance at scale, governance, and analytical workloads.</t>
     </r>
   </si>
 </sst>
@@ -3264,7 +4895,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3285,8 +4916,16 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3299,8 +4938,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3443,11 +5100,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3491,6 +5228,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3498,6 +5270,60 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3819,9 +5645,9 @@
   </sheetPr>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3847,7 +5673,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3861,7 +5687,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="15"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3873,7 +5699,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3885,7 +5711,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="15"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3897,7 +5723,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3909,7 +5735,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3921,7 +5747,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +5759,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
@@ -3945,7 +5771,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -3957,7 +5783,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -3969,7 +5795,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3981,7 +5807,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5">
-      <c r="A13" s="15"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="10" t="s">
         <v>331</v>
       </c>
@@ -3993,7 +5819,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="28" t="s">
         <v>358</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4007,7 +5833,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -4019,7 +5845,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
@@ -4031,7 +5857,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -4043,7 +5869,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
@@ -4055,7 +5881,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
@@ -4067,7 +5893,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
@@ -4079,7 +5905,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
@@ -4091,7 +5917,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
@@ -4103,7 +5929,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="15"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
@@ -4115,7 +5941,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="15"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
@@ -4127,7 +5953,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
@@ -4139,7 +5965,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="15"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
@@ -4151,7 +5977,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="15"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
@@ -4163,7 +5989,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
@@ -4175,7 +6001,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="15"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="2" t="s">
         <v>81</v>
       </c>
@@ -4187,7 +6013,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="15"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="2" t="s">
         <v>84</v>
       </c>
@@ -4199,7 +6025,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8" t="s">
         <v>334</v>
       </c>
@@ -4211,7 +6037,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="28" t="s">
         <v>359</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4225,7 +6051,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="15"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="2" t="s">
         <v>90</v>
       </c>
@@ -4237,7 +6063,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="2" t="s">
         <v>93</v>
       </c>
@@ -4249,7 +6075,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="15"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
@@ -4261,7 +6087,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="2" t="s">
         <v>99</v>
       </c>
@@ -4273,7 +6099,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="15"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="2" t="s">
         <v>102</v>
       </c>
@@ -4285,7 +6111,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="2" t="s">
         <v>105</v>
       </c>
@@ -4297,7 +6123,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="15"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="2" t="s">
         <v>108</v>
       </c>
@@ -4309,7 +6135,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="2" t="s">
         <v>111</v>
       </c>
@@ -4321,7 +6147,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="15"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="2" t="s">
         <v>114</v>
       </c>
@@ -4333,7 +6159,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="15"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="2" t="s">
         <v>117</v>
       </c>
@@ -4345,7 +6171,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="15"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="2" t="s">
         <v>120</v>
       </c>
@@ -4357,7 +6183,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="15"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="2" t="s">
         <v>123</v>
       </c>
@@ -4369,7 +6195,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="15"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="2" t="s">
         <v>126</v>
       </c>
@@ -4381,7 +6207,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="15"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="2" t="s">
         <v>129</v>
       </c>
@@ -4393,7 +6219,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="15"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="2" t="s">
         <v>132</v>
       </c>
@@ -4405,7 +6231,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="15"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="2" t="s">
         <v>337</v>
       </c>
@@ -4417,7 +6243,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="28" t="s">
         <v>360</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -4431,7 +6257,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="2" t="s">
         <v>138</v>
       </c>
@@ -4443,7 +6269,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="15"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
@@ -4455,7 +6281,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="15"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="2" t="s">
         <v>143</v>
       </c>
@@ -4467,7 +6293,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="15"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="2" t="s">
         <v>146</v>
       </c>
@@ -4479,7 +6305,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="15"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="2" t="s">
         <v>149</v>
       </c>
@@ -4491,7 +6317,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="15"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="2" t="s">
         <v>152</v>
       </c>
@@ -4503,7 +6329,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="15"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="2" t="s">
         <v>155</v>
       </c>
@@ -4515,7 +6341,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="15"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="2" t="s">
         <v>158</v>
       </c>
@@ -4527,7 +6353,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="15"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="2" t="s">
         <v>161</v>
       </c>
@@ -4539,7 +6365,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="15"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="2" t="s">
         <v>371</v>
       </c>
@@ -4551,7 +6377,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="28" t="s">
         <v>361</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -4565,7 +6391,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="15"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="2" t="s">
         <v>167</v>
       </c>
@@ -4577,7 +6403,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="15"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="2" t="s">
         <v>169</v>
       </c>
@@ -4589,7 +6415,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="15"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="2" t="s">
         <v>172</v>
       </c>
@@ -4601,7 +6427,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="15"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="2" t="s">
         <v>175</v>
       </c>
@@ -4613,7 +6439,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="15"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="2" t="s">
         <v>178</v>
       </c>
@@ -4625,7 +6451,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="15"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="2" t="s">
         <v>181</v>
       </c>
@@ -4637,7 +6463,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="15"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="2" t="s">
         <v>184</v>
       </c>
@@ -4649,7 +6475,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="15"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="2" t="s">
         <v>187</v>
       </c>
@@ -4661,7 +6487,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="15"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="2" t="s">
         <v>343</v>
       </c>
@@ -4673,7 +6499,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="28" t="s">
         <v>362</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4687,7 +6513,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="15"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="2" t="s">
         <v>193</v>
       </c>
@@ -4699,7 +6525,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="15"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="2" t="s">
         <v>196</v>
       </c>
@@ -4711,7 +6537,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="15"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="2" t="s">
         <v>199</v>
       </c>
@@ -4723,7 +6549,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="15"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="2" t="s">
         <v>202</v>
       </c>
@@ -4735,7 +6561,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="15"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="2" t="s">
         <v>204</v>
       </c>
@@ -4747,7 +6573,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="15"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="2" t="s">
         <v>206</v>
       </c>
@@ -4759,7 +6585,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="15"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="2" t="s">
         <v>348</v>
       </c>
@@ -4771,7 +6597,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="28" t="s">
         <v>363</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -4785,7 +6611,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="15"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="2" t="s">
         <v>211</v>
       </c>
@@ -4797,7 +6623,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="15"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="2" t="s">
         <v>214</v>
       </c>
@@ -4809,7 +6635,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="15"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="2" t="s">
         <v>217</v>
       </c>
@@ -4821,7 +6647,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="15"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="2" t="s">
         <v>220</v>
       </c>
@@ -4833,7 +6659,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="15"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="2" t="s">
         <v>223</v>
       </c>
@@ -4845,7 +6671,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="15"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="2" t="s">
         <v>351</v>
       </c>
@@ -4857,7 +6683,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="28" t="s">
         <v>365</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4871,7 +6697,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="15"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="2" t="s">
         <v>244</v>
       </c>
@@ -4883,7 +6709,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="15"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="2" t="s">
         <v>247</v>
       </c>
@@ -4895,7 +6721,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="15"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="2" t="s">
         <v>250</v>
       </c>
@@ -4907,7 +6733,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="15"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="2" t="s">
         <v>253</v>
       </c>
@@ -4919,7 +6745,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="15"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="2" t="s">
         <v>256</v>
       </c>
@@ -4931,7 +6757,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="28" t="s">
         <v>366</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4945,7 +6771,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="15"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="2" t="s">
         <v>262</v>
       </c>
@@ -4957,7 +6783,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="15"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="2" t="s">
         <v>265</v>
       </c>
@@ -4969,7 +6795,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="15"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="2" t="s">
         <v>268</v>
       </c>
@@ -4981,7 +6807,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="15"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="2" t="s">
         <v>271</v>
       </c>
@@ -4993,7 +6819,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="15"/>
+      <c r="A96" s="28"/>
       <c r="B96" s="2" t="s">
         <v>274</v>
       </c>
@@ -5005,7 +6831,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="28" t="s">
         <v>367</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -5019,7 +6845,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="15"/>
+      <c r="A98" s="28"/>
       <c r="B98" s="2" t="s">
         <v>279</v>
       </c>
@@ -5031,7 +6857,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="15"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="2" t="s">
         <v>282</v>
       </c>
@@ -5043,7 +6869,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="15"/>
+      <c r="A100" s="28"/>
       <c r="B100" s="2" t="s">
         <v>285</v>
       </c>
@@ -5055,7 +6881,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="15"/>
+      <c r="A101" s="28"/>
       <c r="B101" s="2" t="s">
         <v>288</v>
       </c>
@@ -5067,7 +6893,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="15"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="2" t="s">
         <v>291</v>
       </c>
@@ -5079,7 +6905,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="28" t="s">
         <v>368</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5093,7 +6919,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="15"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="2" t="s">
         <v>297</v>
       </c>
@@ -5105,7 +6931,7 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="15"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="2" t="s">
         <v>300</v>
       </c>
@@ -5117,7 +6943,7 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="15"/>
+      <c r="A106" s="28"/>
       <c r="B106" s="2" t="s">
         <v>303</v>
       </c>
@@ -5129,7 +6955,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="15"/>
+      <c r="A107" s="28"/>
       <c r="B107" s="2" t="s">
         <v>306</v>
       </c>
@@ -5141,7 +6967,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="15"/>
+      <c r="A108" s="28"/>
       <c r="B108" s="2" t="s">
         <v>309</v>
       </c>
@@ -5153,7 +6979,7 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="15"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="2" t="s">
         <v>354</v>
       </c>
@@ -5165,7 +6991,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="28" t="s">
         <v>370</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5179,7 +7005,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="15"/>
+      <c r="A111" s="28"/>
       <c r="B111" s="2" t="s">
         <v>324</v>
       </c>
@@ -5191,7 +7017,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.65" thickBot="1">
-      <c r="A112" s="16"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="6" t="s">
         <v>327</v>
       </c>
@@ -5204,7 +7030,7 @@
     </row>
     <row r="114" spans="1:4" ht="14.65" thickBot="1"/>
     <row r="115" spans="1:4">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="30" t="s">
         <v>364</v>
       </c>
       <c r="B115" s="13" t="s">
@@ -5218,7 +7044,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="15"/>
+      <c r="A116" s="28"/>
       <c r="B116" s="2" t="s">
         <v>229</v>
       </c>
@@ -5230,7 +7056,7 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="15"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="2" t="s">
         <v>232</v>
       </c>
@@ -5242,7 +7068,7 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="15"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="2" t="s">
         <v>235</v>
       </c>
@@ -5254,7 +7080,7 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="15"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="2" t="s">
         <v>238</v>
       </c>
@@ -5266,7 +7092,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="28" t="s">
         <v>369</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -5280,7 +7106,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="15"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="2" t="s">
         <v>315</v>
       </c>
@@ -5292,7 +7118,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.65" thickBot="1">
-      <c r="A122" s="16"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="6" t="s">
         <v>318</v>
       </c>
@@ -5322,4 +7148,3025 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59FCBA1-62CF-47B9-BFA8-DD3C773C8F2D}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="31"/>
+      <c r="B3" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="31"/>
+      <c r="B4" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="31"/>
+      <c r="B5" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="31"/>
+      <c r="B6" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="31"/>
+      <c r="B7" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="31"/>
+      <c r="B9" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="31"/>
+      <c r="B10" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="31"/>
+      <c r="B12" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="31"/>
+      <c r="B13" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="31"/>
+      <c r="B14" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="31"/>
+      <c r="B15" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="31"/>
+      <c r="B16" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="31"/>
+      <c r="B17" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="31"/>
+      <c r="B18" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="31"/>
+      <c r="B20" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="31"/>
+      <c r="B21" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="31"/>
+      <c r="B22" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="31"/>
+      <c r="B23" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="31"/>
+      <c r="B24" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="31"/>
+      <c r="B27" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="31"/>
+      <c r="B28" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="31"/>
+      <c r="B29" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="31"/>
+      <c r="B31" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="31"/>
+      <c r="B32" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="31"/>
+      <c r="B33" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="31"/>
+      <c r="B34" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="31"/>
+      <c r="B36" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A35437-DC46-489F-B999-E31B394233FD}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:G180"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:C180"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="32"/>
+      <c r="B4" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="32"/>
+      <c r="B7" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="32"/>
+      <c r="B8" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="32"/>
+      <c r="B9" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="32"/>
+      <c r="B11" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="32"/>
+      <c r="B13" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32"/>
+      <c r="B21" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.65" thickBot="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.65" thickBot="1"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="37"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="37"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="39"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="37"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="39"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="37"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="39"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="37"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="37"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="39"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="37"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="39"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="37"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="39"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="37"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="39"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="39"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="37"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="39"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="37"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="39"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="39"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="37"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="37"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="39"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="37"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="39"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="37"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="39"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="37"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="39"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="37"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="39"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="37"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="39"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="37"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="39"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="39"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="39"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="39"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="37"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="39"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="37"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="39"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="37"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="39"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="37"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="39"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="37"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="37"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="39"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="37"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="39"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="39"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="37"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="39"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="37"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="39"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="37"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="39"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="37"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="39"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="37"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="39"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="37"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="39"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="37"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="39"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="37"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="39"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="37"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="39"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="37"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="39"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="37"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="39"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="37"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="39"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="37"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="39"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="37"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="39"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="37"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="39"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="37"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="39"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="37"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="39"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="37"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="39"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="37"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="39"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="37"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="39"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="37"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="39"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="37"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="39"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="37"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="39"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="37"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="39"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="37"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="39"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="37"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="39"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="37"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="39"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="37"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="39"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="37"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="39"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="37"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="39"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="37"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="39"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="37"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="39"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="37"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="39"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="37"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="39"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="37"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="39"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="37"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="39"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="37"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="39"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="37"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="39"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="37"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="39"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="37"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="39"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="37"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="39"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="37"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="39"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="37"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="39"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="37"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="39"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="37"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="39"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="37"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="39"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="37"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="39"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="37"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="39"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="37"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="39"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="37"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="39"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="37"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="39"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="37"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="39"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="37"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="39"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="37"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="39"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="37"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="39"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="37"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="39"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="37"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="39"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="37"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="39"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="37"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="39"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="37"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="39"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="37"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="39"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="37"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="39"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="37"/>
+      <c r="B165" s="38"/>
+      <c r="C165" s="39"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="37"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="39"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="37"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="39"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="37"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="39"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="37"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="39"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="37"/>
+      <c r="B170" s="38"/>
+      <c r="C170" s="39"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="37"/>
+      <c r="B171" s="38"/>
+      <c r="C171" s="39"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="37"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="39"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="37"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="39"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="37"/>
+      <c r="B174" s="38"/>
+      <c r="C174" s="39"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="37"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="39"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="37"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="39"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="37"/>
+      <c r="B177" s="38"/>
+      <c r="C177" s="39"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="37"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="39"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="37"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="39"/>
+    </row>
+    <row r="180" spans="1:3" ht="14.65" thickBot="1">
+      <c r="A180" s="40"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A25:C180"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2C7471-A3F5-486D-BC71-06959EEC1889}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="42.75">
+      <c r="A35" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5">
+      <c r="A36" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.9" thickBot="1">
+      <c r="A37" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.65" thickBot="1"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="32"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="46"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="32"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="46"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="32"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="46"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="46"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="32"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="46"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="32"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="46"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="32"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="32"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="46"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="32"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="46"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="46"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="32"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="46"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="46"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="46"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="32"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="46"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="32"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="46"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="46"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="32"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="46"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="32"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="46"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="32"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="46"/>
+    </row>
+    <row r="59" spans="1:3" ht="14.65" thickBot="1">
+      <c r="A59" s="33"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:C59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Databricks_Notes.xlsx
+++ b/Databricks_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A589AD-17EF-4B69-AF0F-8B38C36131F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E076567-3324-4F76-92C8-20FB1FB57874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{6D06DD71-AA96-4A60-BF7F-1C9189E66ACB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D06DD71-AA96-4A60-BF7F-1C9189E66ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="DBX Optimization Techniques-112" sheetId="2" r:id="rId1"/>
@@ -5275,12 +5275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5306,6 +5300,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5645,17 +5645,17 @@
   </sheetPr>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5672,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="28" t="s">
         <v>357</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="28"/>
       <c r="B13" s="10" t="s">
         <v>331</v>
@@ -7016,7 +7016,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.65" thickBot="1">
+    <row r="112" spans="1:4" ht="15.75" thickBot="1">
       <c r="A112" s="29"/>
       <c r="B112" s="6" t="s">
         <v>327</v>
@@ -7028,7 +7028,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.65" thickBot="1"/>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="115" spans="1:4">
       <c r="A115" s="30" t="s">
         <v>364</v>
@@ -7117,7 +7117,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="14.65" thickBot="1">
+    <row r="122" spans="1:4" ht="15.75" thickBot="1">
       <c r="A122" s="29"/>
       <c r="B122" s="6" t="s">
         <v>318</v>
@@ -7158,24 +7158,24 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -8216,22 +8216,22 @@
   <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:C180"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8278,7 +8278,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="41" t="s">
         <v>596</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -8301,7 +8301,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="9" t="s">
         <v>602</v>
       </c>
@@ -8345,7 +8345,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="41" t="s">
         <v>615</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -8368,7 +8368,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="9" t="s">
         <v>622</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="9" t="s">
         <v>628</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="9" t="s">
         <v>458</v>
       </c>
@@ -8431,7 +8431,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="41" t="s">
         <v>639</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -8454,7 +8454,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="9" t="s">
         <v>646</v>
       </c>
@@ -8475,7 +8475,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="41" t="s">
         <v>652</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -8498,7 +8498,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="9" t="s">
         <v>659</v>
       </c>
@@ -8657,7 +8657,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="41" t="s">
         <v>706</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -8680,7 +8680,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="9" t="s">
         <v>713</v>
       </c>
@@ -8700,8 +8700,8 @@
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.65" thickBot="1">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A22" s="42"/>
       <c r="B22" s="23" t="s">
         <v>719</v>
       </c>
@@ -8721,788 +8721,788 @@
         <v>723</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.65" thickBot="1"/>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:7">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="37"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="39"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="37"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="39"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="37"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="39"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="39"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="39"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="37"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="39"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="37"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="39"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="39"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="37"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="37"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="39"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="37"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="37"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="39"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="39"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="39"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="39"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="37"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="39"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="39"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="39"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="37"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="37"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="39"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="39"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="37"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="39"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="37"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="39"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="37"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="39"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="37"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="39"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="39"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="39"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="37"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="39"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="37"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="39"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="37"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="39"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="37"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="37"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="39"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="37"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="39"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="37"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="39"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="37"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="39"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="39"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="37"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="37"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="39"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="37"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="39"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="39"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="37"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="37"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="39"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="37"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="37"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="39"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="37"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="37"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="39"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="37"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="37"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="39"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="37"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="37"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="39"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="37"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="39"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="37"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="37"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="39"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="37"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="37"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="39"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="37"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="37"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="39"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="37"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="37"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="39"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="37"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="37"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="39"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="37"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="37"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="39"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="37"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="37"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="39"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="37"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="37"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="39"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="37"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="37"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="39"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="37"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="37"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="39"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="37"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="37"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="39"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="37"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="37"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="39"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="37"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="39"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="37"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="37"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="39"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="37"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="37"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="39"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="37"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="37"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="39"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="37"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="37"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="39"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="37"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="37"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="39"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="37"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="37"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="39"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="37"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="37"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="39"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="37"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="37"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="39"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="37"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="37"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="39"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="37"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="37"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="39"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="37"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="37"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="39"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="37"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="37"/>
-      <c r="B140" s="38"/>
-      <c r="C140" s="39"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="37"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="37"/>
-      <c r="B141" s="38"/>
-      <c r="C141" s="39"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="37"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="37"/>
-      <c r="B142" s="38"/>
-      <c r="C142" s="39"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="37"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="37"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="39"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="37"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="37"/>
-      <c r="B144" s="38"/>
-      <c r="C144" s="39"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="37"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="37"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="39"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="37"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="37"/>
-      <c r="B146" s="38"/>
-      <c r="C146" s="39"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="37"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="37"/>
-      <c r="B147" s="38"/>
-      <c r="C147" s="39"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="37"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="37"/>
-      <c r="B148" s="38"/>
-      <c r="C148" s="39"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="37"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="37"/>
-      <c r="B149" s="38"/>
-      <c r="C149" s="39"/>
+      <c r="A149" s="35"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="37"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="37"/>
-      <c r="B150" s="38"/>
-      <c r="C150" s="39"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="37"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="37"/>
-      <c r="B151" s="38"/>
-      <c r="C151" s="39"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="37"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="37"/>
-      <c r="B152" s="38"/>
-      <c r="C152" s="39"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="37"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="37"/>
-      <c r="B153" s="38"/>
-      <c r="C153" s="39"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="37"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="37"/>
-      <c r="B154" s="38"/>
-      <c r="C154" s="39"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="37"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="37"/>
-      <c r="B155" s="38"/>
-      <c r="C155" s="39"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="37"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="37"/>
-      <c r="B156" s="38"/>
-      <c r="C156" s="39"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="37"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="37"/>
-      <c r="B157" s="38"/>
-      <c r="C157" s="39"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="37"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="37"/>
-      <c r="B158" s="38"/>
-      <c r="C158" s="39"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="37"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="37"/>
-      <c r="B159" s="38"/>
-      <c r="C159" s="39"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="37"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="37"/>
-      <c r="B160" s="38"/>
-      <c r="C160" s="39"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="37"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="37"/>
-      <c r="B161" s="38"/>
-      <c r="C161" s="39"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="37"/>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="37"/>
-      <c r="B162" s="38"/>
-      <c r="C162" s="39"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="37"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="37"/>
-      <c r="B163" s="38"/>
-      <c r="C163" s="39"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="37"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="37"/>
-      <c r="B164" s="38"/>
-      <c r="C164" s="39"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="37"/>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="37"/>
-      <c r="B165" s="38"/>
-      <c r="C165" s="39"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="37"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="37"/>
-      <c r="B166" s="38"/>
-      <c r="C166" s="39"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="37"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="37"/>
-      <c r="B167" s="38"/>
-      <c r="C167" s="39"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="37"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="37"/>
-      <c r="B168" s="38"/>
-      <c r="C168" s="39"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="37"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="37"/>
-      <c r="B169" s="38"/>
-      <c r="C169" s="39"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="37"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="37"/>
-      <c r="B170" s="38"/>
-      <c r="C170" s="39"/>
+      <c r="A170" s="35"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="37"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="37"/>
-      <c r="B171" s="38"/>
-      <c r="C171" s="39"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="37"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="37"/>
-      <c r="B172" s="38"/>
-      <c r="C172" s="39"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="37"/>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="37"/>
-      <c r="B173" s="38"/>
-      <c r="C173" s="39"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="37"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="37"/>
-      <c r="B174" s="38"/>
-      <c r="C174" s="39"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="37"/>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="37"/>
-      <c r="B175" s="38"/>
-      <c r="C175" s="39"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="37"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="37"/>
-      <c r="B176" s="38"/>
-      <c r="C176" s="39"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="37"/>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="37"/>
-      <c r="B177" s="38"/>
-      <c r="C177" s="39"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="37"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="37"/>
-      <c r="B178" s="38"/>
-      <c r="C178" s="39"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="37"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="37"/>
-      <c r="B179" s="38"/>
-      <c r="C179" s="39"/>
-    </row>
-    <row r="180" spans="1:3" ht="14.65" thickBot="1">
-      <c r="A180" s="40"/>
-      <c r="B180" s="41"/>
-      <c r="C180" s="42"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="37"/>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A180" s="38"/>
+      <c r="B180" s="39"/>
+      <c r="C180" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9524,20 +9524,20 @@
   </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
         <v>725</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="42.75">
+    <row r="35" spans="1:4" ht="45">
       <c r="A35" s="21" t="s">
         <v>832</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.5">
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" s="21" t="s">
         <v>836</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.9" thickBot="1">
+    <row r="37" spans="1:4" ht="30.75" thickBot="1">
       <c r="A37" s="22" t="s">
         <v>840</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.65" thickBot="1"/>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:4">
       <c r="A39" s="43" t="s">
         <v>844</v>
@@ -10064,102 +10064,102 @@
       <c r="C39" s="45"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="32"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="31"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="32"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="31"/>
       <c r="C41" s="46"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="32"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="31"/>
       <c r="C42" s="46"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="31"/>
       <c r="C43" s="46"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="32"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="31"/>
       <c r="C44" s="46"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="31"/>
       <c r="C45" s="46"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="32"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="31"/>
       <c r="C46" s="46"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="31"/>
       <c r="C47" s="46"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="32"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="31"/>
       <c r="C48" s="46"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="32"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="31"/>
       <c r="C49" s="46"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="32"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="31"/>
       <c r="C50" s="46"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="32"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="31"/>
       <c r="C51" s="46"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="32"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="31"/>
       <c r="C52" s="46"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="32"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="31"/>
       <c r="C53" s="46"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="32"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="31"/>
       <c r="C54" s="46"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="32"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="31"/>
       <c r="C55" s="46"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="32"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="31"/>
       <c r="C56" s="46"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="32"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="31"/>
       <c r="C57" s="46"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="32"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="31"/>
       <c r="C58" s="46"/>
     </row>
-    <row r="59" spans="1:3" ht="14.65" thickBot="1">
-      <c r="A59" s="33"/>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A59" s="42"/>
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
     </row>
